--- a/docs/Extension-CareConnect-NHSCommunication-1.xlsx
+++ b/docs/Extension-CareConnect-NHSCommunication-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$56</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="112">
   <si>
     <t>Path</t>
   </si>
@@ -224,7 +224,13 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Extension.extension.url</t>
+    <t>Extension.extension.extension.id</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.url</t>
   </si>
   <si>
     <t xml:space="preserve">uri
@@ -246,16 +252,42 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Extension.extension.valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
+    <t>Extension.extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingMeta</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension.url</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x]</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -265,22 +297,19 @@
     <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-HumanLanguage-1</t>
   </si>
   <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
     <t>preferred</t>
   </si>
   <si>
     <t>Language preference indicator</t>
-  </si>
-  <si>
-    <t>Extension.extension.valueBoolean</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
+    <t>valueBoolean</t>
+  </si>
+  <si>
     <t>Indicates whether or not this language is preferred (over other languages up a certain level)</t>
   </si>
   <si>
@@ -333,16 +362,6 @@
   </si>
   <si>
     <t>https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-NHSCommunication-1</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingMeta</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
   </si>
 </sst>
 </file>
@@ -491,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AJ56"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -500,7 +519,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.16015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="24.8515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1262,7 +1281,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>45</v>
@@ -1277,24 +1296,22 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>37</v>
@@ -1336,10 +1353,10 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>45</v>
@@ -1351,25 +1368,23 @@
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>37</v>
@@ -1381,15 +1396,17 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>66</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>37</v>
@@ -1414,37 +1431,37 @@
         <v>37</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="AC9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>37</v>
@@ -1453,22 +1470,20 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>45</v>
@@ -1483,15 +1498,17 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>37</v>
@@ -1540,13 +1557,13 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>37</v>
@@ -1555,12 +1572,12 @@
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1583,13 +1600,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1640,7 +1657,7 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
@@ -1655,23 +1672,23 @@
         <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>37</v>
@@ -1683,16 +1700,16 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -1700,7 +1717,7 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>37</v>
@@ -1730,25 +1747,25 @@
         <v>37</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>37</v>
@@ -1757,12 +1774,12 @@
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1770,7 +1787,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>45</v>
@@ -1785,24 +1802,22 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>37</v>
@@ -1832,22 +1847,20 @@
         <v>37</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>37</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AB13" s="2"/>
       <c r="AC13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>45</v>
@@ -1859,14 +1872,16 @@
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="C14" t="s" s="2">
         <v>37</v>
       </c>
@@ -1887,13 +1902,13 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1920,13 +1935,13 @@
         <v>37</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>37</v>
@@ -1959,7 +1974,7 @@
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" hidden="true">
@@ -1967,7 +1982,7 @@
         <v>51</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>37</v>
@@ -1977,7 +1992,7 @@
         <v>38</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>37</v>
@@ -1992,7 +2007,7 @@
         <v>52</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>53</v>
@@ -2276,7 +2291,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>45</v>
@@ -2291,24 +2306,22 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>37</v>
@@ -2350,10 +2363,10 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>45</v>
@@ -2365,25 +2378,23 @@
         <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>37</v>
@@ -2395,15 +2406,17 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>66</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>37</v>
@@ -2428,37 +2441,37 @@
         <v>37</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>37</v>
@@ -2467,22 +2480,20 @@
         <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>45</v>
@@ -2497,15 +2508,17 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>37</v>
@@ -2554,13 +2567,13 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>37</v>
@@ -2569,12 +2582,12 @@
         <v>37</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2597,13 +2610,13 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2654,7 +2667,7 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>38</v>
@@ -2669,23 +2682,23 @@
         <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>37</v>
@@ -2697,16 +2710,16 @@
         <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -2714,7 +2727,7 @@
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>37</v>
@@ -2744,25 +2757,25 @@
         <v>37</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>37</v>
@@ -2771,12 +2784,12 @@
         <v>37</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -2784,7 +2797,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>45</v>
@@ -2799,24 +2812,22 @@
         <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>37</v>
@@ -2846,22 +2857,20 @@
         <v>37</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>37</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>45</v>
@@ -2873,15 +2882,15 @@
         <v>37</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>37</v>
@@ -2903,13 +2912,13 @@
         <v>37</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>94</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -2936,13 +2945,13 @@
         <v>37</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>37</v>
@@ -2975,7 +2984,7 @@
         <v>37</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" hidden="true">
@@ -2983,7 +2992,7 @@
         <v>51</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>37</v>
@@ -2993,7 +3002,7 @@
         <v>38</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>37</v>
@@ -3008,7 +3017,7 @@
         <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>53</v>
@@ -3292,7 +3301,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>45</v>
@@ -3307,24 +3316,22 @@
         <v>37</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>37</v>
@@ -3366,10 +3373,10 @@
         <v>37</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>45</v>
@@ -3381,23 +3388,23 @@
         <v>37</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>37</v>
@@ -3409,15 +3416,17 @@
         <v>37</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>66</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>37</v>
@@ -3454,25 +3463,25 @@
         <v>37</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>37</v>
@@ -3481,12 +3490,12 @@
         <v>37</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3509,16 +3518,16 @@
         <v>37</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -3526,7 +3535,7 @@
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>37</v>
@@ -3568,7 +3577,7 @@
         <v>37</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>45</v>
@@ -3583,12 +3592,12 @@
         <v>37</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3599,7 +3608,7 @@
         <v>38</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>37</v>
@@ -3611,13 +3620,13 @@
         <v>37</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3683,11 +3692,2535 @@
         <v>37</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>73</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB33" s="2"/>
+      <c r="AC33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB43" s="2"/>
+      <c r="AC43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB53" s="2"/>
+      <c r="AC53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ31">
+  <autoFilter ref="A1:AJ56">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3697,7 +6230,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI30">
+  <conditionalFormatting sqref="A2:AI55">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
